--- a/Tabela  1b - Total de obitos com ma.xlsx
+++ b/Tabela  1b - Total de obitos com ma.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,19 +394,19 @@
         <v>2001</v>
       </c>
       <c r="B2">
-        <v>8799.333333333334</v>
+        <v>8796.333333333334</v>
       </c>
       <c r="C2">
+        <v>5247</v>
+      </c>
+      <c r="D2">
+        <v>3545.666666666667</v>
+      </c>
+      <c r="E2">
         <v>5249</v>
       </c>
-      <c r="D2">
-        <v>3546.666666666667</v>
-      </c>
-      <c r="E2">
-        <v>5251</v>
-      </c>
       <c r="F2">
-        <v>3548.333333333333</v>
+        <v>3547.333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -787,6 +787,23 @@
       </c>
       <c r="F21">
         <v>7097.333333333333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22">
+        <v>11768.66666666667</v>
+      </c>
+      <c r="C22">
+        <v>6593.333333333333</v>
+      </c>
+      <c r="D22">
+        <v>5173.333333333333</v>
+      </c>
+      <c r="E22">
+        <v>6594.666666666667</v>
+      </c>
+      <c r="F22">
+        <v>5174</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela  1b - Total de obitos com ma.xlsx
+++ b/Tabela  1b - Total de obitos com ma.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,19 +394,19 @@
         <v>2001</v>
       </c>
       <c r="B2">
-        <v>8796.333333333334</v>
+        <v>8799.333333333334</v>
       </c>
       <c r="C2">
-        <v>5247</v>
+        <v>5249</v>
       </c>
       <c r="D2">
-        <v>3545.666666666667</v>
+        <v>3546.666666666667</v>
       </c>
       <c r="E2">
-        <v>5249</v>
+        <v>5251</v>
       </c>
       <c r="F2">
-        <v>3547.333333333333</v>
+        <v>3548.333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -787,23 +787,6 @@
       </c>
       <c r="F21">
         <v>7097.333333333333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22">
-        <v>11768.66666666667</v>
-      </c>
-      <c r="C22">
-        <v>6593.333333333333</v>
-      </c>
-      <c r="D22">
-        <v>5173.333333333333</v>
-      </c>
-      <c r="E22">
-        <v>6594.666666666667</v>
-      </c>
-      <c r="F22">
-        <v>5174</v>
       </c>
     </row>
   </sheetData>
